--- a/files/reference_xls/combined_commercials.xlsx
+++ b/files/reference_xls/combined_commercials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10222"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/files/reference_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C47CD-3EFC-B542-9969-9EB01DC5D24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F148F-00BA-1048-A92F-FBF8E38BB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15940" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
   </bookViews>
@@ -102,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,11 +111,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
       <top/>
+      <bottom style="hair">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="1"/>
+      </left>
+      <right style="hair">
+        <color theme="1"/>
+      </right>
+      <top style="hair">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFFE570D"/>
+        <color rgb="FFFD5300"/>
       </bottom>
       <diagonal/>
     </border>
@@ -124,36 +158,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -165,6 +211,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFD5300"/>
       <color rgb="FFF0F0F0"/>
       <color rgb="FFD6D6D6"/>
     </mruColors>
@@ -500,190 +547,194 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="6.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="6"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="5:7" ht="30" customHeight="1">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="5:7" ht="30" customHeight="1">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="5:7" ht="30" customHeight="1">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="5:7" ht="30" customHeight="1">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="5:7" ht="30" customHeight="1">
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="5:7" ht="30" customHeight="1">
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="5:7" ht="30" customHeight="1">
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="5:7" ht="30" customHeight="1">
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="5:7" ht="30" customHeight="1">
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="5:7" ht="30" customHeight="1">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="5:7" ht="30" customHeight="1">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="5:7" ht="30" customHeight="1">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="5:7" ht="30" customHeight="1">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/reference_xls/combined_commercials.xlsx
+++ b/files/reference_xls/combined_commercials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/snigdhagoel/Documents/Vibrant Technik/vibrant-technik/offer-generator-test/files/reference_xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2F148F-00BA-1048-A92F-FBF8E38BB96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DFA3C2-EB24-F94F-A4B3-7BFF2C611F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15940" xr2:uid="{F43B73FE-8CF1-4744-879F-C5563AC27FC7}"/>
   </bookViews>
@@ -111,45 +111,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top style="hair">
-        <color theme="1"/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </top>
-      <bottom style="hair">
-        <color theme="1"/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color theme="1"/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFD5300"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color theme="1"/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </left>
-      <right style="hair">
-        <color theme="1"/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top style="hair">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFFD5300"/>
+        <color theme="2" tint="-9.9978637043366805E-2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -184,22 +184,22 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,7 +547,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
